--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_8_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_8_square_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.64000000000041</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>7.488454301096681e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>3.655055225103396e-16</v>
+        <v>3.34989767883805e-12</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>53.60234066468482</v>
+        <v>44.39812637908831</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[42.15706070186849, 65.04762062750115]</t>
+          <t>[29.938956254766055, 58.857296503410566]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.341516505832146e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.341516505832146e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>1.603816069400194</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.364816027685655, 1.8428161111147334]</t>
+          <t>[0.7861843477451931, 1.46544762419704]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.634799293829929e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>5.634799293829929e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>62.49558640512716</v>
+        <v>61.97368362926656</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.0249184475409, 69.96625436271343]</t>
+          <t>[54.29177437189831, 69.6555928866348]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.35051051051082</v>
+        <v>19.77357357357384</v>
       </c>
       <c r="X2" t="n">
-        <v>17.41325325325354</v>
+        <v>18.47141141141166</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28776776776809</v>
+        <v>21.07573573573602</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.97000000000062</v>
+        <v>25.64000000000057</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>6.146563458132354e-16</v>
+        <v>8.458842092382145e-15</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>42.76206127119912</v>
+        <v>47.16565647443012</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.804955008647873, 54.71916753375037]</t>
+          <t>[33.200635281574804, 61.13067766728544]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.996824927630314e-11</v>
+        <v>1.962863205307031e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>1.996824927630314e-11</v>
+        <v>3.925726410614061e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>2.584974135386196</v>
+        <v>2.257921446724195</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.295658295415965, 2.8742899753564277]</t>
+          <t>[1.9560266571900398, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.69254314657483</v>
+        <v>62.52674058905168</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.25288443434, 65.13220185880968]</t>
+          <t>[55.3601833943616, 69.69329778374176]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.28564564564601</v>
+        <v>16.42602602602639</v>
       </c>
       <c r="X3" t="n">
-        <v>14.08982982983017</v>
+        <v>15.19407407407441</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.48146146146185</v>
+        <v>17.65797797797838</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_8_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_8_square_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.09000000000033</v>
+        <v>25.32000000000052</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7.488454301096681e-13</v>
+        <v>5.890843368661081e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>3.34989767883805e-12</v>
+        <v>2.05560013455397e-12</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>44.39812637908831</v>
+        <v>43.72782237080482</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[29.938956254766055, 58.857296503410566]</t>
+          <t>[30.54870211109654, 56.90694263051311]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.341516505832146e-09</v>
+        <v>5.44725153872605e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>7.341516505832146e-09</v>
+        <v>5.44725153872605e-10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.125815985971117</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.7861843477451931, 1.46544762419704]</t>
+          <t>[1.5031844728888082, 2.207605648468503]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>5.634799293829929e-10</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.634799293829929e-10</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.97368362926656</v>
+        <v>61.13148395425684</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.29177437189831, 69.6555928866348]</t>
+          <t>[53.48626004982344, 68.77670785869023]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.77357357357384</v>
+        <v>17.84312312312349</v>
       </c>
       <c r="X2" t="n">
-        <v>18.47141141141166</v>
+        <v>16.42378378378412</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.07573573573602</v>
+        <v>19.26246246246286</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.64000000000057</v>
+        <v>25.54000000000055</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>8.458842092382145e-15</v>
+        <v>6.167905692361981e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>47.16565647443012</v>
+        <v>50.2588503456582</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[33.200635281574804, 61.13067766728544]</t>
+          <t>[37.2593595669186, 63.25834112439781]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.962863205307031e-10</v>
+        <v>6.192824031359123e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>3.925726410614061e-10</v>
+        <v>1.238564806271825e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>2.257921446724195</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.9560266571900398, 2.5598162362583503]</t>
+          <t>[1.8428161111147343, 2.371131992799503]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.52674058905168</v>
+        <v>59.31927267376641</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.3601833943616, 69.69329778374176]</t>
+          <t>[52.43304061643006, 66.20550473110275]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.42602602602639</v>
+        <v>16.9755355355359</v>
       </c>
       <c r="X3" t="n">
-        <v>15.19407407407441</v>
+        <v>15.90178178178213</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.65797797797838</v>
+        <v>18.04928928928968</v>
       </c>
     </row>
   </sheetData>
